--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.6216</v>
+        <v>-7.6515</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.152700000000002</v>
+        <v>5.979700000000005</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5749</v>
+        <v>5.346200000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.835899999999998</v>
+        <v>6.650499999999997</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.886899999999995</v>
+        <v>-8.855299999999998</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.178900000000004</v>
+        <v>9.265200000000004</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.113600000000002</v>
+        <v>9.016500000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.358100000000002</v>
+        <v>-7.269999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.620299999999999</v>
+        <v>5.5582</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.010299999999997</v>
+        <v>-8.063099999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.647300000000002</v>
+        <v>6.7861</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.696300000000001</v>
+        <v>-8.891800000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.014400000000003</v>
+        <v>5.086800000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.568899999999998</v>
+        <v>-7.4809</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.352800000000006</v>
+        <v>-8.272600000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.115899999999995</v>
+        <v>-8.163299999999998</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.770500000000002</v>
+        <v>8.959699999999996</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.175899999999999</v>
+        <v>-8.257100000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.419799999999997</v>
+        <v>-7.422299999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.695999999999999</v>
+        <v>-7.794899999999996</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.096000000000002</v>
+        <v>-7.998200000000002</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.182799999999998</v>
+        <v>5.2001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.911899999999997</v>
+        <v>-8.8317</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.861399999999996</v>
+        <v>-7.884099999999997</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.210699999999997</v>
+        <v>4.939799999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.106899999999996</v>
+        <v>-8.031899999999997</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>6.163399999999997</v>
+        <v>6.518900000000002</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.988799999999999</v>
+        <v>-7.901199999999999</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.1157</v>
+        <v>5.707300000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.376799999999996</v>
+        <v>5.377699999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.983799999999993</v>
+        <v>-8.075999999999995</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.004600000000005</v>
+        <v>-8.138100000000007</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.364800000000001</v>
+        <v>9.431700000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.657899999999996</v>
+        <v>4.938099999999996</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.971300000000002</v>
+        <v>-5.879400000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.982200000000003</v>
+        <v>-8.195200000000005</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.084999999999998</v>
+        <v>4.973600000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.004900000000001</v>
+        <v>-5.782800000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.0472</v>
+        <v>5.805400000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.086399999999998</v>
+        <v>5.050999999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
